--- a/results/results_2.xlsx
+++ b/results/results_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\TinyGP\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0B954C-40B5-4623-A3CD-9C56F33AD334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB16F1-CCA1-4E10-98F4-C2396BA0C4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -2149,16 +2149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3007,15 +3007,15 @@
   <dimension ref="A1:CX102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="24" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-3.14</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>-14.286129793364118</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-3.0778217821782179</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>13.613486461286346</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3.0156435643564357</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>25.3369577400032</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-2.9534653465346534</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>45.98911687324442</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-2.8912871287128712</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>58.755990912612127</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-2.829108910891089</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>88.055614861359061</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-2.7669306930693067</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>106.10748053698728</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-2.7047524752475245</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>126.49172555174627</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-2.6425742574257423</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>136.66661027347018</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-2.58039603960396</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>143.63761346827042</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-2.5182178217821778</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>163.90397140614905</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-2.4560396039603956</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>160.80928131276053</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-2.3938613861386133</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>172.70420159101982</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-2.3316831683168311</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>181.02689849694232</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-2.2695049504950489</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>183.97823721451761</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-2.2073267326732666</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>188.71726318852623</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-2.1451485148514844</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>188.49882662959908</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-2.0829702970297022</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>185.81644422954076</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-2.0207920792079199</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>184.07361355850807</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-1.9586138613861377</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>181.77014758714404</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1.8964356435643555</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>178.60855823633119</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.8342574257425732</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>174.88606262484151</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.772079207920791</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>170.72023126824698</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-1.7099009900990088</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>166.14553707082769</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.6477227722772265</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>160.8498188494635</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.5855445544554443</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>156.45678625930657</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-1.5233663366336621</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>155.83176653824464</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.4611881188118798</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>148.72964047222075</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.3990099009900976</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>149.07729617215657</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.3368316831683154</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>150.37326859503153</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.2746534653465331</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>153.27269703041381</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.2124752475247509</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>155.62353918568851</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.1502970297029687</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>159.05719615745133</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.0881188118811864</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>164.50541014781928</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.0259405940594042</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>169.71357518601678</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-0.96376237623762195</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>173.88049298892179</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-0.90158415841583972</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>177.50673366275879</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-0.83940594059405749</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>188.99900901222222</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-0.77722772277227525</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>183.75400547942888</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-0.71504950495049302</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>183.76327569720544</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.65287128712871079</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>185.19392610323337</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-0.59069306930692855</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>182.42480394938036</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-0.52851485148514632</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>175.12045091411443</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-0.46633663366336414</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>173.57600358656225</v>
       </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-0.40415841584158196</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>147.06148885245747</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-0.34198019801979979</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>136.05661613431232</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-0.27980198019801761</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>115.08298329267004</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-0.21762376237623543</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>92.650192032628766</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-0.15544554455445325</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>66.179568811539781</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-9.3267326732671074E-2</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>39.189014037207713</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-3.1089108910888896E-2</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>13.284261831938055</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3.1089108910893282E-2</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>-13.258876366380006</v>
       </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9.326732673267546E-2</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>-40.024167693763424</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.15544554455445764</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>-61.051118140713456</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.21762376237623982</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>-95.740421391697041</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.27980198019802199</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>-108.7907756982453</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.34198019801980417</v>
       </c>
@@ -26579,7 +26579,7 @@
         <v>-130.97480073181674</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.40415841584158635</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>-145.1668186915409</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.46633663366336853</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>-159.62150481280202</v>
       </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.52851485148515076</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>-171.42450748152456</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.59069306930693299</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>-176.81496384102599</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.65287128712871523</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>-180.84817134007562</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.71504950495049746</v>
       </c>
@@ -29027,7 +29027,7 @@
         <v>-178.34713436557308</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.77722772277227969</v>
       </c>
@@ -29435,7 +29435,7 @@
         <v>-194.39090390648161</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.83940594059406193</v>
       </c>
@@ -29843,7 +29843,7 @@
         <v>-187.95199576238576</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.90158415841584416</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>-180.66165190229702</v>
       </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.96376237623762639</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>-182.00834023717496</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.0259405940594086</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>-170.52844289289862</v>
       </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.0881188118811909</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>-164.78507645995677</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.1502970297029731</v>
       </c>
@@ -31883,7 +31883,7 @@
         <v>-159.1523654029036</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.2124752475247553</v>
       </c>
@@ -32291,7 +32291,7 @@
         <v>-156.6409490290464</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.2746534653465376</v>
       </c>
@@ -32699,7 +32699,7 @@
         <v>-178.36740632867824</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.3368316831683198</v>
       </c>
@@ -33107,7 +33107,7 @@
         <v>-112.00938320313985</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.399009900990102</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>-135.7813040981016</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.4611881188118843</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>-129.05406625095966</v>
       </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.5233663366336665</v>
       </c>
@@ -34331,7 +34331,7 @@
         <v>-108.61348504847517</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.5855445544554487</v>
       </c>
@@ -34739,7 +34739,7 @@
         <v>-146.743565954822</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.647722772277231</v>
       </c>
@@ -35147,7 +35147,7 @@
         <v>-139.23657921574915</v>
       </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.7099009900990132</v>
       </c>
@@ -35555,7 +35555,7 @@
         <v>-171.60737993190469</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.7720792079207954</v>
       </c>
@@ -35963,7 +35963,7 @@
         <v>-170.26051986085355</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.8342574257425777</v>
       </c>
@@ -36371,7 +36371,7 @@
         <v>-132.23918177148315</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.8964356435643599</v>
       </c>
@@ -36779,7 +36779,7 @@
         <v>-148.72565246546205</v>
       </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.9586138613861421</v>
       </c>
@@ -37187,7 +37187,7 @@
         <v>-164.94770755966863</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.0207920792079244</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>-171.62750629025436</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2.0829702970297066</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>-146.7020815427696</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2.1451485148514888</v>
       </c>
@@ -38411,7 +38411,7 @@
         <v>-175.20823292207044</v>
       </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2.2073267326732711</v>
       </c>
@@ -38819,7 +38819,7 @@
         <v>-170.49334157023137</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.2695049504950533</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>-159.39062012044224</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2.3316831683168355</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>-141.2058777294977</v>
       </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2.3938613861386178</v>
       </c>
@@ -40043,7 +40043,7 @@
         <v>-121.5967493236767</v>
       </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2.4560396039604</v>
       </c>
@@ -40451,7 +40451,7 @@
         <v>-117.12218003241152</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2.5182178217821822</v>
       </c>
@@ -40859,7 +40859,7 @@
         <v>-111.77365755290182</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2.5803960396039645</v>
       </c>
@@ -41267,7 +41267,7 @@
         <v>-98.559604742488474</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2.6425742574257467</v>
       </c>
@@ -41675,7 +41675,7 @@
         <v>-167.75791698944462</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2.7047524752475289</v>
       </c>
@@ -42083,7 +42083,7 @@
         <v>-186.91560202167733</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2.7669306930693112</v>
       </c>
@@ -42491,7 +42491,7 @@
         <v>-94.760366823964276</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2.8291089108910934</v>
       </c>
@@ -42899,7 +42899,7 @@
         <v>-91.188442705236284</v>
       </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2.8912871287128756</v>
       </c>
@@ -43307,7 +43307,7 @@
         <v>-82.704849126959502</v>
       </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2.9534653465346579</v>
       </c>
@@ -43715,7 +43715,7 @@
         <v>-71.578328410222156</v>
       </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3.0156435643564401</v>
       </c>
@@ -44123,7 +44123,7 @@
         <v>-56.719170364751662</v>
       </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3.0778217821782223</v>
       </c>
